--- a/app01/static/files/salesproduct_addform.xlsx
+++ b/app01/static/files/salesproduct_addform.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -109,6 +109,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -116,30 +128,92 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,54 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,42 +256,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -273,12 +273,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,13 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,67 +405,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,79 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,11 +532,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +571,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -574,58 +624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,140 +649,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,11 +795,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,31 +808,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1156,11 +1147,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1168,73 +1159,73 @@
     <col min="1" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.4916666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.375" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.3666666666667" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="96" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
